--- a/Informe/Mediciones/CaracteristicaVoIo_Teorico.xlsx
+++ b/Informe/Mediciones/CaracteristicaVoIo_Teorico.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C76B61-8E7E-4F9E-A426-82725769D14B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3E3191-35F3-49D9-AFBE-B862B2A8FCD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Io</t>
   </si>
